--- a/data/cadaver/AID.xlsx
+++ b/data/cadaver/AID.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Manual</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Avg Increase in EA AID</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,14 +191,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +485,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -492,27 +498,27 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -766,7 +772,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1"/>
@@ -778,7 +784,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1"/>
@@ -793,29 +799,29 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -852,6 +858,9 @@
       <c r="L15" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="M15" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -894,6 +903,10 @@
         <f>AVERAGE(I16:K16)</f>
         <v>479.33333333333331</v>
       </c>
+      <c r="M16" s="11">
+        <f>_xlfn.STDEV.S(I16:K16)</f>
+        <v>35.851545759330008</v>
+      </c>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -936,6 +949,10 @@
         <f t="shared" ref="L17:L18" si="2">AVERAGE(I17:K17)</f>
         <v>437</v>
       </c>
+      <c r="M17" s="11">
+        <f t="shared" ref="M17:M18" si="3">_xlfn.STDEV.S(I17:K17)</f>
+        <v>59.908263203000637</v>
+      </c>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -978,6 +995,10 @@
         <f t="shared" si="2"/>
         <v>459</v>
       </c>
+      <c r="M18" s="11">
+        <f t="shared" si="3"/>
+        <v>135.5249054602142</v>
+      </c>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1089,7 +1110,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f>AVERAGE(F15:F17)</f>
         <v>12.666666666666666</v>
       </c>
@@ -1098,7 +1119,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f>AVERAGE(F18:F23)</f>
         <v>56.833333333333336</v>
       </c>

--- a/data/cadaver/AID.xlsx
+++ b/data/cadaver/AID.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Manual</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,11 +179,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -199,7 +220,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +517,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -845,21 +877,27 @@
         <v>9</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="12" t="s">
         <v>27</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="R15" s="2"/>
     </row>
@@ -884,28 +922,36 @@
         <v>14</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
         <f>E15</f>
         <v>498</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="11">
         <f>E16</f>
         <v>502</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="11">
         <f>E17</f>
         <v>438</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="15">
         <f>AVERAGE(I16:K16)</f>
         <v>479.33333333333331</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="14">
         <f>_xlfn.STDEV.S(I16:K16)</f>
         <v>35.851545759330008</v>
+      </c>
+      <c r="N16" s="16">
+        <f>MIN(I16:K16)</f>
+        <v>438</v>
+      </c>
+      <c r="O16" s="16">
+        <f>MAX(I16:K16)</f>
+        <v>502</v>
       </c>
       <c r="R16" s="2"/>
     </row>
@@ -930,28 +976,36 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="11">
         <f>E18</f>
         <v>369</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="11">
         <f>E19</f>
         <v>460</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="11">
         <f>E20</f>
         <v>482</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="15">
         <f t="shared" ref="L17:L18" si="2">AVERAGE(I17:K17)</f>
         <v>437</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="14">
         <f t="shared" ref="M17:M18" si="3">_xlfn.STDEV.S(I17:K17)</f>
         <v>59.908263203000637</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" ref="N17:N18" si="4">MIN(I17:K17)</f>
+        <v>369</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" ref="O17:O18" si="5">MAX(I17:K17)</f>
+        <v>482</v>
       </c>
       <c r="R17" s="2"/>
     </row>
@@ -976,28 +1030,36 @@
         <v>56</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="11">
         <f>E21</f>
         <v>322</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="11">
         <f>E22</f>
         <v>462</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="11">
         <f>E23</f>
         <v>593</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="15">
         <f t="shared" si="2"/>
         <v>459</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="14">
         <f t="shared" si="3"/>
         <v>135.5249054602142</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="5"/>
+        <v>593</v>
       </c>
       <c r="R18" s="2"/>
     </row>

--- a/data/cadaver/AID.xlsx
+++ b/data/cadaver/AID.xlsx
@@ -217,9 +217,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +230,9 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +517,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -545,12 +545,12 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -848,12 +848,12 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -877,26 +877,26 @@
         <v>9</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="2"/>
@@ -922,34 +922,34 @@
         <v>14</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <f>E15</f>
         <v>498</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <f>E16</f>
         <v>502</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <f>E17</f>
         <v>438</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <f>AVERAGE(I16:K16)</f>
         <v>479.33333333333331</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <f>_xlfn.STDEV.S(I16:K16)</f>
         <v>35.851545759330008</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <f>MIN(I16:K16)</f>
         <v>438</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <f>MAX(I16:K16)</f>
         <v>502</v>
       </c>
@@ -976,34 +976,34 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f>E18</f>
         <v>369</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <f>E19</f>
         <v>460</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>E20</f>
         <v>482</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <f t="shared" ref="L17:L18" si="2">AVERAGE(I17:K17)</f>
         <v>437</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <f t="shared" ref="M17:M18" si="3">_xlfn.STDEV.S(I17:K17)</f>
         <v>59.908263203000637</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="15">
         <f t="shared" ref="N17:N18" si="4">MIN(I17:K17)</f>
         <v>369</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="15">
         <f t="shared" ref="O17:O18" si="5">MAX(I17:K17)</f>
         <v>482</v>
       </c>
@@ -1030,34 +1030,34 @@
         <v>56</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f>E21</f>
         <v>322</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <f>E22</f>
         <v>462</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>E23</f>
         <v>593</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <f t="shared" si="2"/>
         <v>459</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <f t="shared" si="3"/>
         <v>135.5249054602142</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="15">
         <f t="shared" si="5"/>
         <v>593</v>
       </c>
